--- a/data/trans_camb/P36BPD07_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Clase-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-11.4883229663826</v>
+        <v>11.48832296638261</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-5.266784431998895</v>
+        <v>5.26678443199889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-8.596405654720673</v>
+        <v>8.596405654720687</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-16.02351666869615</v>
+        <v>6.910584031712026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.55445648033621</v>
+        <v>0.8730721621246307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.7420510863738</v>
+        <v>5.481941239581708</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.910584031712004</v>
+        <v>16.02351666869616</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8730721621246409</v>
+        <v>9.554456480336196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.481941239581722</v>
+        <v>11.74205108637378</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.1269203670779582</v>
+        <v>1.211336315137131</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.05901966350118128</v>
+        <v>0.4893776665277872</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.09557666373415488</v>
+        <v>0.8547272936516165</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1728388557427026</v>
+        <v>0.5790918068691461</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1050932479591712</v>
+        <v>0.05193763822700294</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1282841594155886</v>
+        <v>0.459293266032846</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.07775812698593826</v>
+        <v>2.155146323939099</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.01015338329249516</v>
+        <v>1.124177933131491</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.06207612012974198</v>
+        <v>1.371827432146821</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-13.50134626488569</v>
+        <v>13.50134626488571</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-7.465975971416372</v>
+        <v>7.465975971416353</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-10.63556948786085</v>
+        <v>10.63556948786085</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-18.959493538043</v>
+        <v>8.091887836858362</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.46586969844384</v>
+        <v>2.513895821642841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.90593849665751</v>
+        <v>6.896356439244385</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-8.091887836858366</v>
+        <v>18.95949353804299</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.513895821642844</v>
+        <v>12.46586969844384</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.89635643924438</v>
+        <v>13.9059384966575</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.1537403483005961</v>
+        <v>1.108407300547443</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.08657491312110416</v>
+        <v>0.5424741075621576</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1222022838047647</v>
+        <v>0.8201707553829553</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2102230461096169</v>
+        <v>0.5518011795335314</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1425682512401858</v>
+        <v>0.1413337915594525</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1574296722448429</v>
+        <v>0.4763128158892777</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.09397324986965706</v>
+        <v>1.980470231583173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02985141672996623</v>
+        <v>1.109164658482843</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.080843279964986</v>
+        <v>1.257970183488311</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-15.49069068637696</v>
+        <v>15.49069068637698</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-9.067636930621049</v>
+        <v>9.067636930621042</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-13.63426380507116</v>
+        <v>13.63426380507116</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-21.22399768487922</v>
+        <v>10.51245542010248</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.41028489092047</v>
+        <v>1.794865056972319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-17.66726648582357</v>
+        <v>8.862324876100807</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.51245542010249</v>
+        <v>21.22399768487922</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.794865056972315</v>
+        <v>16.4102848909205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-8.862324876100809</v>
+        <v>17.66726648582357</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.1804660569969249</v>
+        <v>1.093754625551132</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1048391268225975</v>
+        <v>0.6712274336764605</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1585443575214538</v>
+        <v>0.9736343160725266</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2412595667399683</v>
+        <v>0.6334527241057657</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1850302247947773</v>
+        <v>0.06947043373856024</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2022822262949407</v>
+        <v>0.5384146190217537</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1234574749992882</v>
+        <v>1.732052972061905</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.0211376165919011</v>
+        <v>1.760264643918361</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1053380697583562</v>
+        <v>1.455398741119974</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-14.3395227287516</v>
+        <v>14.3395227287516</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-7.906862909099511</v>
+        <v>7.906862909099504</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-11.58129241783987</v>
+        <v>11.58129241783987</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.89579112618864</v>
+        <v>10.37089339352568</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.30253351683265</v>
+        <v>3.98383167225281</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.24014402924122</v>
+        <v>9.177111146500819</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-10.37089339352567</v>
+        <v>17.89579112618863</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.983831672252804</v>
+        <v>11.30253351683264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-9.177111146500815</v>
+        <v>14.24014402924121</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.1687653433888099</v>
+        <v>0.9538838796350564</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.09463921355914312</v>
+        <v>0.480585227207042</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1372623724081229</v>
+        <v>0.7411266041902023</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2080820155396375</v>
+        <v>0.6199587925069466</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1323115169738953</v>
+        <v>0.2041942420946374</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1668765580647892</v>
+        <v>0.5425967674522929</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1241331715888954</v>
+        <v>1.314235128045519</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.04813474319073256</v>
+        <v>0.7623099417010059</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1101526484901174</v>
+        <v>0.9873668043409094</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-18.31932800025929</v>
+        <v>18.31932800025929</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-11.97047734756085</v>
+        <v>11.97047734756086</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-14.3988523141653</v>
+        <v>14.3988523141653</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-23.53756745509039</v>
+        <v>12.96165541871759</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-15.6633908924762</v>
+        <v>8.179115842157184</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.77826432456736</v>
+        <v>11.31619886385103</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-12.96165541871759</v>
+        <v>23.53756745509039</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-8.179115842157183</v>
+        <v>15.6633908924762</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-11.31619886385104</v>
+        <v>17.77826432456735</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.2178356427576224</v>
+        <v>1.151942960139122</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.1376471807721777</v>
+        <v>0.9183285342675443</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.168099113129689</v>
+        <v>1.003888459509952</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2768422614200387</v>
+        <v>0.7063840288240055</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1769539964686521</v>
+        <v>0.5368999751028917</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2050192348562073</v>
+        <v>0.7027162219692479</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1583833859227248</v>
+        <v>1.700639114660378</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.09711602383857069</v>
+        <v>1.425534142699589</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1347348671146842</v>
+        <v>1.363914527173562</v>
       </c>
     </row>
     <row r="34">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.3913396864171359</v>
+        <v>-0.3913396864171304</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-16.02999941456761</v>
+        <v>16.0299994145676</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-12.61271041482357</v>
+        <v>12.61271041482356</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-11.50965027281513</v>
+        <v>-10.64517364010869</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-20.07369338317438</v>
+        <v>12.61241070312764</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-16.51273634377835</v>
+        <v>8.767582920934776</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.6451736401087</v>
+        <v>11.50965027281513</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-12.61241070312765</v>
+        <v>20.07369338317439</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-8.767582920934764</v>
+        <v>16.51273634377836</v>
       </c>
     </row>
     <row r="37">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.005888750798373163</v>
+        <v>-0.01166627332410268</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.1816213797290673</v>
+        <v>1.365479086405061</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1507501393083765</v>
+        <v>0.7721906904347663</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1680123941280907</v>
+        <v>-0.2952195203652943</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2293398932164948</v>
+        <v>0.9584130105024409</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.196151938837205</v>
+        <v>0.4905685677942466</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1688161878219329</v>
+        <v>0.3548933259477222</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1458004574292988</v>
+        <v>1.867153083215142</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1062469865038787</v>
+        <v>1.093127494752584</v>
       </c>
     </row>
     <row r="40">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>-12.99627955648326</v>
+        <v>12.99627955648328</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-10.40810484449487</v>
+        <v>10.40810484449489</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-11.660174361016</v>
+        <v>11.66017436101598</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-15.21206237528701</v>
+        <v>11.05913844312851</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-12.09488416311494</v>
+        <v>8.691915335077367</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-12.9843282876132</v>
+        <v>10.21537537699206</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-11.0591384431285</v>
+        <v>15.21206237528702</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-8.691915335077374</v>
+        <v>12.09488416311494</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-10.21537537699206</v>
+        <v>12.98432828761319</v>
       </c>
     </row>
     <row r="43">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>-0.1539996374571459</v>
+        <v>0.8326477949793276</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.1200730020573007</v>
+        <v>0.7814757500549279</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1362790556348192</v>
+        <v>0.8075480779413569</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1784181132674769</v>
+        <v>0.6694633596963077</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1384364439119996</v>
+        <v>0.6169332915374973</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1502852888628576</v>
+        <v>0.6751640283287464</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1318510386194435</v>
+        <v>1.042225149614477</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1012937092351321</v>
+        <v>0.9715284608298488</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.120280484748781</v>
+        <v>0.9355146419789901</v>
       </c>
     </row>
     <row r="46">

--- a/data/trans_camb/P36BPD07_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Clase-trans_camb.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P36BPD07_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Clase-trans_camb.xlsx
@@ -570,7 +570,7 @@
         <v>5.26678443199889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.596405654720687</v>
+        <v>8.596405654720684</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.910584031712026</v>
+        <v>6.83806024028577</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8730721621246307</v>
+        <v>0.2641176854313406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.481941239581708</v>
+        <v>5.314062692793815</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.02351666869616</v>
+        <v>15.7741355944553</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.554456480336196</v>
+        <v>9.383460746240759</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.74205108637378</v>
+        <v>11.89905218168984</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0.4893776665277872</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8547272936516165</v>
+        <v>0.8547272936516163</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5790918068691461</v>
+        <v>0.5704122085319218</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.05193763822700294</v>
+        <v>0.01988390308829307</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.459293266032846</v>
+        <v>0.4327793911267171</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.155146323939099</v>
+        <v>2.203317653025878</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.124177933131491</v>
+        <v>1.121088278259942</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.371827432146821</v>
+        <v>1.445610268100648</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.091887836858362</v>
+        <v>8.208103060227021</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.513895821642841</v>
+        <v>2.843513220867074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.896356439244385</v>
+        <v>6.580724741420159</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.95949353804299</v>
+        <v>18.87377722402604</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.46586969844384</v>
+        <v>12.46995090491318</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.9059384966575</v>
+        <v>14.38019882502101</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.5518011795335314</v>
+        <v>0.5599420950823049</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1413337915594525</v>
+        <v>0.1646337263666833</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4763128158892777</v>
+        <v>0.4403960133927668</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.980470231583173</v>
+        <v>1.969905947758789</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.109164658482843</v>
+        <v>1.170723727147964</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.257970183488311</v>
+        <v>1.314905892369354</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>15.49069068637698</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>9.067636930621042</v>
+        <v>9.067636930621045</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.63426380507116</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.51245542010248</v>
+        <v>9.953752025093255</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.794865056972319</v>
+        <v>0.8586301629558686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.862324876100807</v>
+        <v>9.652938848459609</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.22399768487922</v>
+        <v>21.09659265775444</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.4102848909205</v>
+        <v>16.64879237358897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.66726648582357</v>
+        <v>17.79395632939038</v>
       </c>
     </row>
     <row r="19">
@@ -830,10 +830,10 @@
         <v>1.093754625551132</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.6712274336764605</v>
+        <v>0.6712274336764608</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.9736343160725266</v>
+        <v>0.9736343160725263</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.6334527241057657</v>
+        <v>0.6163294054540844</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06947043373856024</v>
+        <v>0.0306935867011871</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5384146190217537</v>
+        <v>0.5847507721250395</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.732052972061905</v>
+        <v>1.815171255950567</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.760264643918361</v>
+        <v>1.669566927309116</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.455398741119974</v>
+        <v>1.456561555519593</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>14.3395227287516</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7.906862909099504</v>
+        <v>7.906862909099507</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11.58129241783987</v>
+        <v>11.58129241783988</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.37089339352568</v>
+        <v>10.5870138453361</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.98383167225281</v>
+        <v>4.342139750017727</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.177111146500819</v>
+        <v>8.795272480905185</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.89579112618863</v>
+        <v>18.0633882814399</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.30253351683264</v>
+        <v>11.58040227765834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.24014402924121</v>
+        <v>14.13051926902349</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>0.9538838796350564</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.480585227207042</v>
+        <v>0.4805852272070422</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7411266041902023</v>
+        <v>0.7411266041902026</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6199587925069466</v>
+        <v>0.6172151866235197</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2041942420946374</v>
+        <v>0.2319248004179696</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5425967674522929</v>
+        <v>0.521055922439457</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.314235128045519</v>
+        <v>1.327495103525963</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7623099417010059</v>
+        <v>0.7906046153589066</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9873668043409094</v>
+        <v>0.9888879767812738</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>12.96165541871759</v>
+        <v>12.81267394048179</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.179115842157184</v>
+        <v>8.105288465013357</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11.31619886385103</v>
+        <v>11.45737883055702</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.53756745509039</v>
+        <v>23.42658071145609</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.6633908924762</v>
+        <v>15.16261212812725</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.77826432456735</v>
+        <v>17.67727260385813</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.7063840288240055</v>
+        <v>0.7088603203468833</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5368999751028917</v>
+        <v>0.535020759444117</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7027162219692479</v>
+        <v>0.7201386170864987</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.700639114660378</v>
+        <v>1.707586598264062</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.425534142699589</v>
+        <v>1.376657398843085</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.363914527173562</v>
+        <v>1.351376206590946</v>
       </c>
     </row>
     <row r="34">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-0.3913396864171304</v>
+        <v>-0.3913396864171137</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>16.0299994145676</v>
+        <v>16.02999941456761</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12.61271041482356</v>
+        <v>12.61271041482357</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.64517364010869</v>
+        <v>-11.73006295740253</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>12.61241070312764</v>
+        <v>12.48889230884437</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8.767582920934776</v>
+        <v>8.992900786520607</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.50965027281513</v>
+        <v>10.0879613034345</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>20.07369338317439</v>
+        <v>19.95731910286314</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16.51273634377836</v>
+        <v>16.23309910273623</v>
       </c>
     </row>
     <row r="37">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>-0.01166627332410268</v>
+        <v>-0.01166627332410219</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>1.365479086405061</v>
+        <v>1.365479086405062</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.7721906904347663</v>
+        <v>0.7721906904347666</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2952195203652943</v>
+        <v>-0.3161523950224327</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.9584130105024409</v>
+        <v>0.9578258271867488</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.4905685677942466</v>
+        <v>0.5158010013071376</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3548933259477222</v>
+        <v>0.3536712305339796</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.867153083215142</v>
+        <v>1.933652227256353</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.093127494752584</v>
+        <v>1.079737498008644</v>
       </c>
     </row>
     <row r="40">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>12.99627955648328</v>
+        <v>12.99627955648327</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>10.40810484449489</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>11.05913844312851</v>
+        <v>10.83800317391936</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>8.691915335077367</v>
+        <v>8.526190728042826</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10.21537537699206</v>
+        <v>10.22442364924395</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>15.21206237528702</v>
+        <v>15.07110870701195</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>12.09488416311494</v>
+        <v>12.09958857693212</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12.98432828761319</v>
+        <v>12.89215923048558</v>
       </c>
     </row>
     <row r="43">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>0.8326477949793276</v>
+        <v>0.8326477949793273</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>0.7814757500549279</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.6694633596963077</v>
+        <v>0.6524199923983586</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.6169332915374973</v>
+        <v>0.5988113967817964</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.6751640283287464</v>
+        <v>0.6835059131746991</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.042225149614477</v>
+        <v>1.028804035854252</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9715284608298488</v>
+        <v>0.98032342572382</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9355146419789901</v>
+        <v>0.9335097224175074</v>
       </c>
     </row>
     <row r="46">
